--- a/testdata/template.xlsx
+++ b/testdata/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoo/GitHub/xlsx/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D10270-CE44-2446-BF5C-2FC8C02FD7F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4699FED5-8601-D340-9BDF-D91A51FAF337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="3960" windowWidth="25520" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,7 +209,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -212,6 +230,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -559,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -584,19 +626,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>10</v>
+      <c r="A2" s="15">
+        <v>100</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
       </c>
       <c r="C2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16">
+        <v>100</v>
+      </c>
+      <c r="B3" s="10">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17">
+        <v>100</v>
+      </c>
+      <c r="B4" s="14">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
+        <v>100</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/testdata/template.xlsx
+++ b/testdata/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoo/GitHub/xlsx/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4699FED5-8601-D340-9BDF-D91A51FAF337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D9C533-05AC-5844-B956-869C64368F40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="3960" windowWidth="25520" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,14 +129,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Hiragino Sans GB W3"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,18 +140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8A6FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -225,34 +207,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -604,7 +580,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -615,18 +591,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>100</v>
       </c>
       <c r="B2" s="6">
@@ -637,35 +613,35 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>100</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>12</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <v>100</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>100</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>13</v>
       </c>
     </row>
